--- a/artfynd/A 31889-2025 artfynd.xlsx
+++ b/artfynd/A 31889-2025 artfynd.xlsx
@@ -1381,7 +1381,7 @@
         <v>126669415</v>
       </c>
       <c r="B8" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 31889-2025 artfynd.xlsx
+++ b/artfynd/A 31889-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,6 +1499,125 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131146223</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Korshamn, Björnö, Mönsterås, Sm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>592302</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6320843</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
